--- a/Result/check1/2025-03-21.xlsx
+++ b/Result/check1/2025-03-21.xlsx
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
